--- a/src/test/resources/Data/Data.xlsx
+++ b/src/test/resources/Data/Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Search</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Televisor Samsung 55 Pulgadas NEO QLED 4K Ultra HD Smart TV QN55QN85</t>
+  </si>
+  <si>
+    <t>Google Tv Hyundai Smart 43 Fhd Comando De Voz</t>
+  </si>
+  <si>
+    <t>Televisor JVC 50 Pulgadas LED 4K HDR Smart TV</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/Data.xlsx
+++ b/src/test/resources/Data/Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Search</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Televisor JVC 50 Pulgadas LED 4K HDR Smart TV</t>
+  </si>
+  <si>
+    <t>Televisor Samsung 50 pulgadas Crystal UHD 4K HDR Smart TV UN50CU8000</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
